--- a/biology/Écologie/Xénobiotique/Xénobiotique.xlsx
+++ b/biology/Écologie/Xénobiotique/Xénobiotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X%C3%A9nobiotique</t>
+          <t>Xénobiotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un xénobiotique (du grec ancien ξενος « étranger » et βιος « vie ») est une substance présente dans un organisme vivant mais qui lui est étrangère[1] : il n'est ni produit par l'organisme lui-même, ni par son alimentation naturelle.
-En général[réf. nécessaire], un xénobiotique est une molécule chimique polluante et parfois toxique à l'intérieur d'un organisme, y compris en faibles voire très faibles concentrations[2]. Deux cas typiques de xénobiotiques sont les pesticides, et les médicaments, en particulier les antibiotiques[3].
-Cette toxicité s’explique parfois par l’absence d'adaptation d'organismes qui n’ont jamais rencontré une substance lors de leur évolution ; par des phénomènes naturels de rejets liés à l'immunité ; par des actions de perturbateur endocrinien du xénobiotique ; ou pour des raisons toxicologiques (toxicité « intrinsèque » du xénobiotique ou sa capacité à agir en synergie avec un autre polluant[4] ou facteur infectieux).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un xénobiotique (du grec ancien ξενος « étranger » et βιος « vie ») est une substance présente dans un organisme vivant mais qui lui est étrangère : il n'est ni produit par l'organisme lui-même, ni par son alimentation naturelle.
+En général[réf. nécessaire], un xénobiotique est une molécule chimique polluante et parfois toxique à l'intérieur d'un organisme, y compris en faibles voire très faibles concentrations. Deux cas typiques de xénobiotiques sont les pesticides, et les médicaments, en particulier les antibiotiques.
+Cette toxicité s’explique parfois par l’absence d'adaptation d'organismes qui n’ont jamais rencontré une substance lors de leur évolution ; par des phénomènes naturels de rejets liés à l'immunité ; par des actions de perturbateur endocrinien du xénobiotique ; ou pour des raisons toxicologiques (toxicité « intrinsèque » du xénobiotique ou sa capacité à agir en synergie avec un autre polluant ou facteur infectieux).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X%C3%A9nobiotique</t>
+          <t>Xénobiotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écotoxicologie est l'étude de l'effet des xénobiotiques sur les organismes et les écosystèmes à l'échelle moléculaire, cellulaire, physiologique, comportementale et à l'échelle des populations.
-Des synergies toxiques entre différents xénobiotiques expliquent certains phénomènes toxicologiques ou écotoxicologiques[5]. 
+Des synergies toxiques entre différents xénobiotiques expliquent certains phénomènes toxicologiques ou écotoxicologiques. 
 Ces phénomènes, parfois très complexes, sont encore incompris et difficiles à modéliser.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X%C3%A9nobiotique</t>
+          <t>Xénobiotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Métabolisme des xénobiotiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cunninghamella elegans est une espèce de champignon trouvée dans les sols et utilisée comme organisme modèle du métabolisme mammalien des xénobiotiques. 
 </t>
